--- a/Spells.xlsx
+++ b/Spells.xlsx
@@ -6,14 +6,14 @@
     <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$G$1000</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$H$35</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="133">
   <si>
     <t>Name</t>
   </si>
@@ -21,7 +21,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>Casting Time</t>
+    <t>Casting</t>
   </si>
   <si>
     <t>Range</t>
@@ -30,68 +30,395 @@
     <t>Duration</t>
   </si>
   <si>
-    <t>Components</t>
+    <t>Comps</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
+    <t>Availability</t>
+  </si>
+  <si>
+    <t>Arcane Lock</t>
+  </si>
+  <si>
+    <t>Abjuration 2</t>
+  </si>
+  <si>
+    <t>1 action</t>
+  </si>
+  <si>
+    <t>Touch</t>
+  </si>
+  <si>
+    <t>Lasts until dispelled</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>An object you touch that has a lock is magically locked. Larger objects like a gate cannot be locked by this spell. You can choose to set a password. When the password is spoken, this spell becomes inactive until it is shut again, or after 1 minute.</t>
+  </si>
+  <si>
+    <t>Wizard, Sorcerer</t>
+  </si>
+  <si>
+    <t>Cold Snare</t>
+  </si>
+  <si>
+    <t>Evocation 1</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>10 rounds</t>
+  </si>
+  <si>
+    <t>V, S</t>
+  </si>
+  <si>
+    <t>A bolt of frost shoots out from your finger towards a creature. The creature takes 2d6 cold damage, and must succeed a Constitution save or will take 1d6 cold damage each round for the next 10 rounds.</t>
+  </si>
+  <si>
+    <t>Counterspell</t>
+  </si>
+  <si>
+    <t>Abjuration 3</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>When a creature you can see casts a spell which it's casting time is 1 action or longer, the casting time of the creature is interrupted. If the creature is concentrating on a spell, that spell ends.</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Detect Magic</t>
+  </si>
+  <si>
+    <t>Divination 1</t>
+  </si>
+  <si>
+    <t>50m</t>
+  </si>
+  <si>
+    <t>10 mins + chanting</t>
+  </si>
+  <si>
+    <t>Whilst chanting, you can see glowing spots which indicate high magical activity. You can also tell what school of magic was used.</t>
+  </si>
+  <si>
+    <t>Detect Thoughts</t>
+  </si>
+  <si>
+    <t>Divination 2</t>
+  </si>
+  <si>
+    <t>10m</t>
+  </si>
+  <si>
+    <t>10 mins + focus</t>
+  </si>
+  <si>
+    <t>Choose a creature you can see that isn't a construct, and has an intelligence of 3 and higher. You know what they are thinking at the moment.</t>
+  </si>
+  <si>
+    <t>Dispel Magic</t>
+  </si>
+  <si>
+    <t>20 secs</t>
+  </si>
+  <si>
+    <t>You can choose a magical effect you can see in the range. If the spell is 3rd level or under, it is dispelled. Otherwise, you must succeed an Intelligence saving throw with a DC of 15 + the spell to dispell's level.</t>
+  </si>
+  <si>
+    <t>Feather Fall</t>
+  </si>
+  <si>
+    <t>Transmutation 1</t>
+  </si>
+  <si>
+    <t>Lasts until landed</t>
+  </si>
+  <si>
+    <t>A creature or object you can see now falls four times as slow, and is unable to take fall damage. This means the creature can jump four times as high.</t>
+  </si>
+  <si>
+    <t>Feign Death</t>
+  </si>
+  <si>
+    <t>Necromancy 3</t>
+  </si>
+  <si>
+    <t>1 day</t>
+  </si>
+  <si>
+    <t>You touch a willing creature. The creature "dies", and it will appear dead towards every sort of test. The creature is also resistant to all damage except psychic damage, and immune to poison and disease during the effect. The creature wakes up when the spell ends.</t>
+  </si>
+  <si>
     <t>Fire Bolt</t>
   </si>
   <si>
     <t>Evocation Cantrip</t>
   </si>
   <si>
-    <t>3s</t>
-  </si>
-  <si>
-    <t>50m</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>V, S</t>
-  </si>
-  <si>
     <t>You shoot out a mote of fire from your palm towards a target, hitting it for 1d8 fire damage.</t>
   </si>
   <si>
-    <t>Cold Snare</t>
-  </si>
-  <si>
-    <t>Evocation 1</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>10m</t>
-  </si>
-  <si>
-    <t>A bolt of frost shoots out from your finger towards a target. If you hit a creature, the creature takes 2d6 damage, and will take 1d6 damage for the next 10 rounds.</t>
+    <t>Hold Person</t>
+  </si>
+  <si>
+    <t>Enchantment 2</t>
+  </si>
+  <si>
+    <t>20m</t>
+  </si>
+  <si>
+    <t>1 hour + focus</t>
+  </si>
+  <si>
+    <t>A creature that isn't undead or a construct must succeed a Constitution saving throw or be paralyzed.</t>
+  </si>
+  <si>
+    <t>Illusory Script</t>
+  </si>
+  <si>
+    <t>Illusion 1</t>
+  </si>
+  <si>
+    <t>You trace your finger on a surface, making the areas traced to glow slightly blue. You can write text, draw images, or anything, but the space cannot exceed 2x2 meters of area.</t>
+  </si>
+  <si>
+    <t>Wizard, Sorcerer, Druid</t>
+  </si>
+  <si>
+    <t>Invisibility</t>
+  </si>
+  <si>
+    <t>Illusion 2</t>
+  </si>
+  <si>
+    <t>A creature you touch that isn't a construct turns invisible. If the creature dies, it turns back visible.</t>
+  </si>
+  <si>
+    <t>Lightning Bolt</t>
+  </si>
+  <si>
+    <t>Evocation 3</t>
+  </si>
+  <si>
+    <t>A bolt of lightning connects your finger at a creature you can see within range. That creature takes 8d6 lightning damage.</t>
+  </si>
+  <si>
+    <t>Locate Object</t>
+  </si>
+  <si>
+    <t>500m</t>
+  </si>
+  <si>
+    <t>30 mins + focus</t>
+  </si>
+  <si>
+    <t>You can choose any object you saw before while standing at most 20 meters away from it. For the duration, you know the general direction or location of this object. If the object breaks, or is modified, the spell ends.</t>
+  </si>
+  <si>
+    <t>Mage Armor</t>
+  </si>
+  <si>
+    <t>Abjuration 1</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>A creature you can touch now gains a protective aura that is barely visible. Each time the creature is struck and damaged, that damage is reduced by 4 + 1d4.</t>
+  </si>
+  <si>
+    <t>Mage Hand</t>
+  </si>
+  <si>
+    <t>A white, misty hand pops out of your real hand. You can control this hand as if it was your real hand, however it is unable to deal damage. The hand can only move 20kgs.</t>
+  </si>
+  <si>
+    <t>Magic Missile</t>
+  </si>
+  <si>
+    <t>Three beads of magic shoots out of your fingers, homing onto a target you know of. The target then takes 1 + 1d4 magic damage. If the target has full cover, then the target has an AC of 10 against this spell.</t>
   </si>
   <si>
     <t>Message</t>
   </si>
   <si>
-    <t>Instantaneous</t>
-  </si>
-  <si>
-    <t>20m</t>
-  </si>
-  <si>
-    <t>10s</t>
-  </si>
-  <si>
-    <t>A creature you know that is there can hear your voice as a whisper for the duration.</t>
+    <t>10 secs</t>
+  </si>
+  <si>
+    <t>A creature you know that is there can hear your voice as a whisper.</t>
+  </si>
+  <si>
+    <t>Misty Step</t>
+  </si>
+  <si>
+    <t>Conjuration 2</t>
+  </si>
+  <si>
+    <t>1 bonus action</t>
+  </si>
+  <si>
+    <t>Choose a location you can see. You disappear into a cloud of mist, which jumps towards the location and reappear there.</t>
+  </si>
+  <si>
+    <t>Protection from E/G</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>A creature you can see that isn't a construct or undead is granted protection from charm or possession. If the creature is already charmed or possessed, then the effect ends.</t>
+  </si>
+  <si>
+    <t>Wizard, Sorcerer, Druid, Cleric</t>
+  </si>
+  <si>
+    <t>Shield</t>
+  </si>
+  <si>
+    <t>When you are attacked, you take a reaction and conjure a dim blue "shield". You gain 5 armor against that attack, and take no damage from magic missile.</t>
+  </si>
+  <si>
+    <t>Wizard, Sorcerer, Cleric</t>
+  </si>
+  <si>
+    <t>Unlock Lock</t>
+  </si>
+  <si>
+    <t>An object you touch under the Arcane Lock spell is unlocked.</t>
+  </si>
+  <si>
+    <t>Fireball</t>
+  </si>
+  <si>
+    <t>A streak of flame shoots out of your finger at a location, bursting into a 4 meter radius ball of fire. All creatures inside the radius takes 6d6 fire damage, and sets flammable objects on fire.</t>
+  </si>
+  <si>
+    <t>Major Image</t>
+  </si>
+  <si>
+    <t>Illusion 3</t>
+  </si>
+  <si>
+    <t>You create an illusion smaller than a 10x10 meter radius. A creature can use an Investigation or Insight check against your spellcasting DC to tell if it's an illusion or not.</t>
+  </si>
+  <si>
+    <t>Magic Circle</t>
+  </si>
+  <si>
+    <t>1 hour</t>
+  </si>
+  <si>
+    <t>V, S, M</t>
+  </si>
+  <si>
+    <t>You draw the magic circle on the ground with the chalk. Once cast, the chalk is replaced with a faint blue glow. The effects and mechanics are the exact same as described in the SRD.</t>
+  </si>
+  <si>
+    <t>Plane Shift</t>
+  </si>
+  <si>
+    <t>Transmutation 5</t>
+  </si>
+  <si>
+    <t>30 secs</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>You ring a tuning fork designed to a specific plane. When the spell is cast, you choose up to 8 creatures to be transported to the designated plane, to a location you specify. If the creature is unwilling, it must make a Charisma saving throw or be transported there. If no location is specified, then the location is set to a random location.</t>
+  </si>
+  <si>
+    <t>Wizard, Cleric</t>
+  </si>
+  <si>
+    <t>Ice Storm</t>
+  </si>
+  <si>
+    <t>Evocation 4</t>
+  </si>
+  <si>
+    <t>You hold a piece of quartz. Each creature that is in a 20 meter radius is pelted with heavy hail, taking 2d8 bludgeoning damage and 4d6 cold damage.</t>
+  </si>
+  <si>
+    <t>Dragonfire</t>
+  </si>
+  <si>
+    <t>10m cone</t>
+  </si>
+  <si>
+    <t>Flames spew out of your hands like a dragon. Each creature caught in it's flames take 1d8 fire damage, and flammable objects are set on fire.</t>
+  </si>
+  <si>
+    <t>Animate Dead</t>
+  </si>
+  <si>
+    <t>A humanoid corpse you can see rises as a zombie under your control for 1 day. If you cast this spell again on the zombie, the timer is reset. If you are a necromancer or some sort of undead, the timer is 2 days instead.</t>
+  </si>
+  <si>
+    <t>Mend Object</t>
+  </si>
+  <si>
+    <t>Transmutation Cantrip</t>
+  </si>
+  <si>
+    <t>You touch two pieces of a broken or shattered object. The two pieces meld together as if it was never broken. If the broken object was broken into many tiny pieces (like glass), then you will have to succeed a DC 18 Dexerity saving throw. If the broken piece is small like a grain of sand, then that piece is unable to be fixed.</t>
+  </si>
+  <si>
+    <t>Ray of Frost</t>
+  </si>
+  <si>
+    <t>A beam of cold and ice shoots from your finger, striking a creature in range. The creature then takes 1d8 cold damage.</t>
+  </si>
+  <si>
+    <t>Darkness</t>
+  </si>
+  <si>
+    <t>Evocation 2</t>
+  </si>
+  <si>
+    <t>10 minutes + focus</t>
+  </si>
+  <si>
+    <t>You hold a piece of obsidian. A pitch-black mist of magical darkness flows from your hand to the surroundings, and goes around corners.</t>
+  </si>
+  <si>
+    <t>See Invisibility</t>
+  </si>
+  <si>
+    <t>For the duration, you can see invisible and ethereal creatures and objects as if they were semi-invisible. Creatures and objects that are ethereal will appear as a white glowing wisp, taking shape of whatever it is.</t>
+  </si>
+  <si>
+    <t>Druidcraft</t>
+  </si>
+  <si>
+    <t>Conjuration Cantrip</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -103,8 +430,12 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,6 +448,12 @@
         <bgColor rgb="FFEA9999"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -124,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -134,7 +471,12 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -351,13 +693,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
-    <col customWidth="1" min="3" max="3" width="13.63"/>
+    <col customWidth="1" min="1" max="1" width="15.88"/>
+    <col customWidth="1" min="2" max="2" width="17.5"/>
+    <col customWidth="1" min="3" max="3" width="11.88"/>
     <col customWidth="1" min="4" max="4" width="9.0"/>
-    <col customWidth="1" min="5" max="5" width="10.25"/>
-    <col customWidth="1" min="6" max="6" width="13.63"/>
-    <col customWidth="1" min="7" max="7" width="127.25"/>
+    <col customWidth="1" min="5" max="5" width="15.75"/>
+    <col customWidth="1" min="6" max="6" width="8.63"/>
+    <col customWidth="1" min="7" max="7" width="242.5"/>
+    <col customWidth="1" min="8" max="8" width="30.13"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -382,181 +725,860 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$G$1000"/>
+  <autoFilter ref="$A$1:$H$35"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>